--- a/output/temu_price_update_4.xlsx
+++ b/output/temu_price_update_4.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -514,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -540,7 +540,7 @@
         <v>4.5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
@@ -553,7 +553,7 @@
         <v>4.5</v>
       </c>
       <c r="C8" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9">
@@ -566,7 +566,7 @@
         <v>4.5</v>
       </c>
       <c r="C9" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10">
@@ -579,7 +579,7 @@
         <v>4.5</v>
       </c>
       <c r="C10" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +592,7 @@
         <v>6.5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12">
@@ -605,7 +605,7 @@
         <v>6.5</v>
       </c>
       <c r="C12" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13">
@@ -618,7 +618,7 @@
         <v>6.5</v>
       </c>
       <c r="C13" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14">
@@ -631,7 +631,7 @@
         <v>6.5</v>
       </c>
       <c r="C14" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="15">
@@ -644,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -683,7 +683,7 @@
         <v>4.5</v>
       </c>
       <c r="C18" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19">
@@ -696,7 +696,7 @@
         <v>3.5</v>
       </c>
       <c r="C19" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="20">
@@ -709,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -748,7 +748,7 @@
         <v>3.5</v>
       </c>
       <c r="C23" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="24">
@@ -761,7 +761,7 @@
         <v>3.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="25">
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -787,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -800,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -813,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -826,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -865,7 +865,7 @@
         <v>4.5</v>
       </c>
       <c r="C32" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33">
@@ -878,7 +878,7 @@
         <v>2.5</v>
       </c>
       <c r="C33" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="34">
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -904,7 +904,7 @@
         <v>15</v>
       </c>
       <c r="C35" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -943,7 +943,7 @@
         <v>20</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -956,7 +956,7 @@
         <v>20</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -969,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="C40" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -995,7 +995,7 @@
         <v>22</v>
       </c>
       <c r="C42" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -1008,7 +1008,7 @@
         <v>22</v>
       </c>
       <c r="C43" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -1021,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1060,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1086,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -1099,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1112,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -1138,7 +1138,7 @@
         <v>9.5</v>
       </c>
       <c r="C53" t="n">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="54">
@@ -1151,7 +1151,7 @@
         <v>9.5</v>
       </c>
       <c r="C54" t="n">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="55">
@@ -1164,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -1203,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -1216,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1242,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="C61" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -1268,7 +1268,7 @@
         <v>52</v>
       </c>
       <c r="C63" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64">
@@ -1281,7 +1281,7 @@
         <v>27</v>
       </c>
       <c r="C64" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -1294,7 +1294,7 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
@@ -1307,7 +1307,7 @@
         <v>6</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -1320,7 +1320,7 @@
         <v>10</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -1333,7 +1333,7 @@
         <v>12</v>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -1346,7 +1346,7 @@
         <v>12</v>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -1359,7 +1359,7 @@
         <v>12</v>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -1372,7 +1372,7 @@
         <v>12</v>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -1385,7 +1385,7 @@
         <v>12</v>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -1398,7 +1398,7 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -1411,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -1424,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -1437,7 +1437,7 @@
         <v>12</v>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -1450,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -1463,7 +1463,7 @@
         <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -1476,7 +1476,7 @@
         <v>12</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -1502,7 +1502,7 @@
         <v>14</v>
       </c>
       <c r="C81" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
@@ -1515,7 +1515,7 @@
         <v>14</v>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -1528,7 +1528,7 @@
         <v>4.5</v>
       </c>
       <c r="C83" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="84">
@@ -1541,7 +1541,7 @@
         <v>2.5</v>
       </c>
       <c r="C84" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="85">
@@ -1554,7 +1554,7 @@
         <v>2.5</v>
       </c>
       <c r="C85" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="86">
@@ -1567,7 +1567,7 @@
         <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -1580,7 +1580,7 @@
         <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -1593,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -1606,7 +1606,7 @@
         <v>10</v>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -1632,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -1645,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -1671,7 +1671,7 @@
         <v>20</v>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -1684,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="C95" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -1697,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -1710,7 +1710,7 @@
         <v>30</v>
       </c>
       <c r="C97" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
@@ -1736,7 +1736,7 @@
         <v>2.5</v>
       </c>
       <c r="C99" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="100">
@@ -1749,7 +1749,7 @@
         <v>8</v>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -1762,7 +1762,7 @@
         <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -1775,7 +1775,7 @@
         <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
@@ -1788,7 +1788,7 @@
         <v>8</v>
       </c>
       <c r="C103" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104">
@@ -1801,7 +1801,7 @@
         <v>28</v>
       </c>
       <c r="C104" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
@@ -1814,7 +1814,7 @@
         <v>28</v>
       </c>
       <c r="C105" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
@@ -1827,7 +1827,7 @@
         <v>28</v>
       </c>
       <c r="C106" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
@@ -1840,7 +1840,7 @@
         <v>28</v>
       </c>
       <c r="C107" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
@@ -1853,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -1866,7 +1866,7 @@
         <v>42</v>
       </c>
       <c r="C109" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110">
@@ -1879,7 +1879,7 @@
         <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
@@ -1892,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -1905,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -1918,7 +1918,7 @@
         <v>8</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
@@ -1931,7 +1931,7 @@
         <v>8</v>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
@@ -1944,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
@@ -1957,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="C116" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -1970,7 +1970,7 @@
         <v>7</v>
       </c>
       <c r="C117" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -1983,7 +1983,7 @@
         <v>7</v>
       </c>
       <c r="C118" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -1996,7 +1996,7 @@
         <v>7</v>
       </c>
       <c r="C119" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -2009,7 +2009,7 @@
         <v>7</v>
       </c>
       <c r="C120" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
@@ -2022,7 +2022,7 @@
         <v>7</v>
       </c>
       <c r="C121" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -2035,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="C122" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
@@ -2048,7 +2048,7 @@
         <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
@@ -2061,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="C124" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -2074,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="C125" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -2087,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
@@ -2100,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="C127" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
@@ -2113,7 +2113,7 @@
         <v>5</v>
       </c>
       <c r="C128" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
@@ -2126,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="C129" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
@@ -2139,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
@@ -2152,7 +2152,7 @@
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
@@ -2165,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
@@ -2178,7 +2178,7 @@
         <v>6.5</v>
       </c>
       <c r="C133" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="134">
@@ -2191,7 +2191,7 @@
         <v>7</v>
       </c>
       <c r="C134" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -2204,7 +2204,7 @@
         <v>7</v>
       </c>
       <c r="C135" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -2217,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="C136" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -2230,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="C137" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -2243,7 +2243,7 @@
         <v>12</v>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139">
@@ -2256,7 +2256,7 @@
         <v>12</v>
       </c>
       <c r="C139" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140">
@@ -2269,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="C140" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
@@ -2282,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="C141" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
@@ -2295,7 +2295,7 @@
         <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
@@ -2308,7 +2308,7 @@
         <v>5</v>
       </c>
       <c r="C143" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -2321,7 +2321,7 @@
         <v>10</v>
       </c>
       <c r="C144" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -2334,7 +2334,7 @@
         <v>9.5</v>
       </c>
       <c r="C145" t="n">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="146">
@@ -2399,7 +2399,7 @@
         <v>14</v>
       </c>
       <c r="C150" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -2412,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152">
@@ -2425,7 +2425,7 @@
         <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
@@ -2438,7 +2438,7 @@
         <v>2.5</v>
       </c>
       <c r="C153" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="154">
@@ -2451,7 +2451,7 @@
         <v>7</v>
       </c>
       <c r="C154" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="C155" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -2477,7 +2477,7 @@
         <v>4.5</v>
       </c>
       <c r="C156" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="157">
@@ -2490,7 +2490,7 @@
         <v>28</v>
       </c>
       <c r="C157" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158">
@@ -2503,7 +2503,7 @@
         <v>28</v>
       </c>
       <c r="C158" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
@@ -2516,7 +2516,7 @@
         <v>28</v>
       </c>
       <c r="C159" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160">
@@ -2529,7 +2529,7 @@
         <v>28</v>
       </c>
       <c r="C160" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
@@ -2542,7 +2542,7 @@
         <v>6</v>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
@@ -2555,7 +2555,7 @@
         <v>6</v>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163">
@@ -2568,7 +2568,7 @@
         <v>5.5</v>
       </c>
       <c r="C163" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="164">
@@ -2581,7 +2581,7 @@
         <v>6</v>
       </c>
       <c r="C164" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="C165" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166">
@@ -2607,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="C166" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
@@ -2620,7 +2620,7 @@
         <v>6</v>
       </c>
       <c r="C167" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168">
@@ -2633,7 +2633,7 @@
         <v>6</v>
       </c>
       <c r="C168" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169">
@@ -2646,7 +2646,7 @@
         <v>6</v>
       </c>
       <c r="C169" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
@@ -2659,7 +2659,7 @@
         <v>6</v>
       </c>
       <c r="C170" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171">
@@ -2672,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172">
@@ -2685,7 +2685,7 @@
         <v>6</v>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173">
@@ -2698,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174">
@@ -2711,7 +2711,7 @@
         <v>6</v>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175">
@@ -2724,7 +2724,7 @@
         <v>6</v>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
@@ -2737,7 +2737,7 @@
         <v>6</v>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177">
@@ -2750,7 +2750,7 @@
         <v>6</v>
       </c>
       <c r="C177" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178">
@@ -2763,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
@@ -2776,7 +2776,7 @@
         <v>8</v>
       </c>
       <c r="C179" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
@@ -2789,7 +2789,7 @@
         <v>5</v>
       </c>
       <c r="C180" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
@@ -2802,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="C181" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182">
@@ -2815,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183">
@@ -2828,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="C183" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
@@ -2841,7 +2841,7 @@
         <v>6.5</v>
       </c>
       <c r="C184" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="185">
@@ -2854,7 +2854,7 @@
         <v>6</v>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186">
@@ -2880,7 +2880,7 @@
         <v>14</v>
       </c>
       <c r="C187" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
@@ -2893,7 +2893,7 @@
         <v>8.5</v>
       </c>
       <c r="C188" t="n">
-        <v>4.25</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="189">
@@ -2906,7 +2906,7 @@
         <v>11</v>
       </c>
       <c r="C189" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190">
@@ -2919,7 +2919,7 @@
         <v>11</v>
       </c>
       <c r="C190" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191">
@@ -2932,7 +2932,7 @@
         <v>11</v>
       </c>
       <c r="C191" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192">
@@ -2945,7 +2945,7 @@
         <v>11</v>
       </c>
       <c r="C192" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193">
@@ -2958,7 +2958,7 @@
         <v>11</v>
       </c>
       <c r="C193" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194">
@@ -2971,7 +2971,7 @@
         <v>11</v>
       </c>
       <c r="C194" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195">
@@ -2984,7 +2984,7 @@
         <v>11</v>
       </c>
       <c r="C195" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196">
@@ -2997,7 +2997,7 @@
         <v>11</v>
       </c>
       <c r="C196" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197">
@@ -3010,7 +3010,7 @@
         <v>12</v>
       </c>
       <c r="C197" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198">
@@ -3023,7 +3023,7 @@
         <v>12</v>
       </c>
       <c r="C198" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199">
@@ -3036,7 +3036,7 @@
         <v>14</v>
       </c>
       <c r="C199" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200">
@@ -3049,7 +3049,7 @@
         <v>25</v>
       </c>
       <c r="C200" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201">
@@ -3062,7 +3062,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202">
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="C202" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -3088,7 +3088,7 @@
         <v>5</v>
       </c>
       <c r="C203" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
@@ -3101,7 +3101,7 @@
         <v>5</v>
       </c>
       <c r="C204" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
@@ -3114,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="C205" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
@@ -3127,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="C206" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
@@ -3140,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="C207" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -3153,7 +3153,7 @@
         <v>10</v>
       </c>
       <c r="C208" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209">
@@ -3166,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="C209" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
@@ -3179,7 +3179,7 @@
         <v>10</v>
       </c>
       <c r="C210" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211">
@@ -3192,7 +3192,7 @@
         <v>11</v>
       </c>
       <c r="C211" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212">
@@ -3205,7 +3205,7 @@
         <v>30</v>
       </c>
       <c r="C212" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213">
@@ -3218,7 +3218,7 @@
         <v>30</v>
       </c>
       <c r="C213" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214">
@@ -3231,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="C214" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215">
@@ -3244,7 +3244,7 @@
         <v>30</v>
       </c>
       <c r="C215" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216">
@@ -3257,7 +3257,7 @@
         <v>7</v>
       </c>
       <c r="C216" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
@@ -3270,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="C217" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
@@ -3283,7 +3283,7 @@
         <v>7</v>
       </c>
       <c r="C218" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
@@ -3296,7 +3296,7 @@
         <v>7</v>
       </c>
       <c r="C219" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
@@ -3309,7 +3309,7 @@
         <v>23</v>
       </c>
       <c r="C220" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221">
@@ -3322,7 +3322,7 @@
         <v>8</v>
       </c>
       <c r="C221" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222">
@@ -3335,7 +3335,7 @@
         <v>8</v>
       </c>
       <c r="C222" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223">
@@ -3348,7 +3348,7 @@
         <v>8</v>
       </c>
       <c r="C223" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224">
@@ -3361,7 +3361,7 @@
         <v>8</v>
       </c>
       <c r="C224" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225">
@@ -3374,7 +3374,7 @@
         <v>8</v>
       </c>
       <c r="C225" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226">
@@ -3387,7 +3387,7 @@
         <v>18</v>
       </c>
       <c r="C226" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227">
@@ -3400,7 +3400,7 @@
         <v>18</v>
       </c>
       <c r="C227" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228">
@@ -3413,7 +3413,7 @@
         <v>18</v>
       </c>
       <c r="C228" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229">
@@ -3426,7 +3426,7 @@
         <v>18</v>
       </c>
       <c r="C229" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230">
@@ -3439,7 +3439,7 @@
         <v>18</v>
       </c>
       <c r="C230" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231">
@@ -3452,7 +3452,7 @@
         <v>18</v>
       </c>
       <c r="C231" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232">
@@ -3465,7 +3465,7 @@
         <v>18</v>
       </c>
       <c r="C232" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233">
@@ -3491,7 +3491,7 @@
         <v>2.5</v>
       </c>
       <c r="C234" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="235">
@@ -3504,7 +3504,7 @@
         <v>2.5</v>
       </c>
       <c r="C235" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="236">
@@ -3517,7 +3517,7 @@
         <v>2.5</v>
       </c>
       <c r="C236" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="237">
@@ -3530,7 +3530,7 @@
         <v>2.5</v>
       </c>
       <c r="C237" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="238">
@@ -3543,7 +3543,7 @@
         <v>2.5</v>
       </c>
       <c r="C238" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="239">
@@ -3556,7 +3556,7 @@
         <v>2.5</v>
       </c>
       <c r="C239" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="240">
@@ -3569,7 +3569,7 @@
         <v>3.5</v>
       </c>
       <c r="C240" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="241">
@@ -3582,7 +3582,7 @@
         <v>3.5</v>
       </c>
       <c r="C241" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="242">
@@ -3595,7 +3595,7 @@
         <v>4.5</v>
       </c>
       <c r="C242" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="243">
@@ -3608,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="C243" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -3621,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="C244" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -3634,7 +3634,7 @@
         <v>3</v>
       </c>
       <c r="C245" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -3647,7 +3647,7 @@
         <v>3</v>
       </c>
       <c r="C246" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -3660,7 +3660,7 @@
         <v>3</v>
       </c>
       <c r="C247" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248">
@@ -3673,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="C248" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -3686,7 +3686,7 @@
         <v>3</v>
       </c>
       <c r="C249" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -3699,7 +3699,7 @@
         <v>3</v>
       </c>
       <c r="C250" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -3712,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="C251" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -3725,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="C252" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -3738,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="C253" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -3751,7 +3751,7 @@
         <v>3</v>
       </c>
       <c r="C254" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -3764,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="C255" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="C256" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -3790,7 +3790,7 @@
         <v>3</v>
       </c>
       <c r="C257" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -3803,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="C258" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -3816,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="C259" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -3829,7 +3829,7 @@
         <v>3</v>
       </c>
       <c r="C260" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -3842,7 +3842,7 @@
         <v>6</v>
       </c>
       <c r="C261" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262">
@@ -3855,7 +3855,7 @@
         <v>6</v>
       </c>
       <c r="C262" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263">
@@ -3868,7 +3868,7 @@
         <v>6.5</v>
       </c>
       <c r="C263" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="264">
@@ -3881,7 +3881,7 @@
         <v>6.5</v>
       </c>
       <c r="C264" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="265">
@@ -3894,7 +3894,7 @@
         <v>5.5</v>
       </c>
       <c r="C265" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="266">
@@ -3907,7 +3907,7 @@
         <v>5.5</v>
       </c>
       <c r="C266" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="267">
@@ -3920,7 +3920,7 @@
         <v>5.5</v>
       </c>
       <c r="C267" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="268">
@@ -3933,7 +3933,7 @@
         <v>5.5</v>
       </c>
       <c r="C268" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="269">
@@ -3946,7 +3946,7 @@
         <v>5</v>
       </c>
       <c r="C269" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270">
@@ -3959,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="C270" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271">
@@ -3972,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="C271" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272">
@@ -3985,7 +3985,7 @@
         <v>5</v>
       </c>
       <c r="C272" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273">
@@ -3998,7 +3998,7 @@
         <v>18</v>
       </c>
       <c r="C273" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274">
@@ -4011,7 +4011,7 @@
         <v>6.5</v>
       </c>
       <c r="C274" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="275">
@@ -4024,7 +4024,7 @@
         <v>12</v>
       </c>
       <c r="C275" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276">
@@ -4037,7 +4037,7 @@
         <v>2.5</v>
       </c>
       <c r="C276" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="277">
@@ -4050,7 +4050,7 @@
         <v>8</v>
       </c>
       <c r="C277" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278">
@@ -4063,7 +4063,7 @@
         <v>8</v>
       </c>
       <c r="C278" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279">
@@ -4076,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="C279" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280">
@@ -4089,7 +4089,7 @@
         <v>8</v>
       </c>
       <c r="C280" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281">
@@ -4102,7 +4102,7 @@
         <v>8</v>
       </c>
       <c r="C281" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282">
@@ -4115,7 +4115,7 @@
         <v>8</v>
       </c>
       <c r="C282" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283">
@@ -4128,7 +4128,7 @@
         <v>8</v>
       </c>
       <c r="C283" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284">
@@ -4141,7 +4141,7 @@
         <v>7</v>
       </c>
       <c r="C284" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285">
@@ -4154,7 +4154,7 @@
         <v>7</v>
       </c>
       <c r="C285" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286">
@@ -4167,7 +4167,7 @@
         <v>6</v>
       </c>
       <c r="C286" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287">
@@ -4180,7 +4180,7 @@
         <v>6</v>
       </c>
       <c r="C287" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288">
@@ -4193,7 +4193,7 @@
         <v>10</v>
       </c>
       <c r="C288" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289">
@@ -4206,7 +4206,7 @@
         <v>10</v>
       </c>
       <c r="C289" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290">
@@ -4232,7 +4232,7 @@
         <v>10</v>
       </c>
       <c r="C291" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292">
@@ -4245,7 +4245,7 @@
         <v>18</v>
       </c>
       <c r="C292" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="293">
@@ -4258,7 +4258,7 @@
         <v>8</v>
       </c>
       <c r="C293" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294">
@@ -4271,7 +4271,7 @@
         <v>8</v>
       </c>
       <c r="C294" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295">
@@ -4284,7 +4284,7 @@
         <v>20</v>
       </c>
       <c r="C295" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296">
@@ -4297,7 +4297,7 @@
         <v>20</v>
       </c>
       <c r="C296" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297">
@@ -4310,7 +4310,7 @@
         <v>7</v>
       </c>
       <c r="C297" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298">
@@ -4323,7 +4323,7 @@
         <v>7</v>
       </c>
       <c r="C298" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299">
@@ -4336,7 +4336,7 @@
         <v>7</v>
       </c>
       <c r="C299" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300">
@@ -4349,7 +4349,7 @@
         <v>10</v>
       </c>
       <c r="C300" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301">
@@ -4362,7 +4362,7 @@
         <v>8</v>
       </c>
       <c r="C301" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302">
@@ -4388,7 +4388,7 @@
         <v>10</v>
       </c>
       <c r="C303" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304">
@@ -4401,7 +4401,7 @@
         <v>7</v>
       </c>
       <c r="C304" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305">
@@ -4414,7 +4414,7 @@
         <v>7</v>
       </c>
       <c r="C305" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306">
@@ -4427,7 +4427,7 @@
         <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307">
@@ -4440,7 +4440,7 @@
         <v>7</v>
       </c>
       <c r="C307" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308">
@@ -4453,7 +4453,7 @@
         <v>9</v>
       </c>
       <c r="C308" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309">
@@ -4466,7 +4466,7 @@
         <v>9</v>
       </c>
       <c r="C309" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310">
@@ -4479,7 +4479,7 @@
         <v>9</v>
       </c>
       <c r="C310" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311">
@@ -4492,7 +4492,7 @@
         <v>9</v>
       </c>
       <c r="C311" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312">
@@ -4505,7 +4505,7 @@
         <v>10</v>
       </c>
       <c r="C312" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313">
@@ -4518,7 +4518,7 @@
         <v>10</v>
       </c>
       <c r="C313" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314">
@@ -4531,7 +4531,7 @@
         <v>10</v>
       </c>
       <c r="C314" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
@@ -4544,7 +4544,7 @@
         <v>10</v>
       </c>
       <c r="C315" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316">
@@ -4557,7 +4557,7 @@
         <v>9</v>
       </c>
       <c r="C316" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317">
@@ -4570,7 +4570,7 @@
         <v>9</v>
       </c>
       <c r="C317" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318">
@@ -4583,7 +4583,7 @@
         <v>10</v>
       </c>
       <c r="C318" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319">
@@ -4596,7 +4596,7 @@
         <v>6</v>
       </c>
       <c r="C319" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="320">
@@ -4609,7 +4609,7 @@
         <v>6</v>
       </c>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321">
@@ -4622,7 +4622,7 @@
         <v>6</v>
       </c>
       <c r="C321" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322">
@@ -4635,7 +4635,7 @@
         <v>6</v>
       </c>
       <c r="C322" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323">
@@ -4648,7 +4648,7 @@
         <v>6</v>
       </c>
       <c r="C323" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324">
@@ -4661,7 +4661,7 @@
         <v>6</v>
       </c>
       <c r="C324" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325">
@@ -4674,7 +4674,7 @@
         <v>8</v>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326">
@@ -4687,7 +4687,7 @@
         <v>8</v>
       </c>
       <c r="C326" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327">
@@ -4700,7 +4700,7 @@
         <v>8</v>
       </c>
       <c r="C327" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328">
@@ -4713,7 +4713,7 @@
         <v>8</v>
       </c>
       <c r="C328" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329">
@@ -4726,7 +4726,7 @@
         <v>8</v>
       </c>
       <c r="C329" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330">
@@ -4739,7 +4739,7 @@
         <v>8</v>
       </c>
       <c r="C330" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331">
@@ -4752,7 +4752,7 @@
         <v>8</v>
       </c>
       <c r="C331" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332">
@@ -4765,7 +4765,7 @@
         <v>8</v>
       </c>
       <c r="C332" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333">
@@ -4778,7 +4778,7 @@
         <v>8</v>
       </c>
       <c r="C333" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334">
@@ -4791,7 +4791,7 @@
         <v>8</v>
       </c>
       <c r="C334" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335">
@@ -4804,7 +4804,7 @@
         <v>8</v>
       </c>
       <c r="C335" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336">
@@ -4817,7 +4817,7 @@
         <v>8</v>
       </c>
       <c r="C336" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337">
@@ -4830,7 +4830,7 @@
         <v>21</v>
       </c>
       <c r="C337" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="338">
@@ -4843,7 +4843,7 @@
         <v>21</v>
       </c>
       <c r="C338" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="339">
@@ -4856,7 +4856,7 @@
         <v>21</v>
       </c>
       <c r="C339" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="340">
@@ -4869,7 +4869,7 @@
         <v>21</v>
       </c>
       <c r="C340" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="341">
@@ -4882,7 +4882,7 @@
         <v>27</v>
       </c>
       <c r="C341" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="342">
@@ -4895,7 +4895,7 @@
         <v>27</v>
       </c>
       <c r="C342" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="343">
@@ -4908,7 +4908,7 @@
         <v>27</v>
       </c>
       <c r="C343" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="344">
@@ -4921,7 +4921,7 @@
         <v>20</v>
       </c>
       <c r="C344" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345">
@@ -4934,7 +4934,7 @@
         <v>20</v>
       </c>
       <c r="C345" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346">
@@ -4947,7 +4947,7 @@
         <v>20</v>
       </c>
       <c r="C346" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347">
@@ -4960,7 +4960,7 @@
         <v>20</v>
       </c>
       <c r="C347" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348">
@@ -4973,7 +4973,7 @@
         <v>11</v>
       </c>
       <c r="C348" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349">
@@ -4986,7 +4986,7 @@
         <v>11</v>
       </c>
       <c r="C349" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350">
@@ -4999,7 +4999,7 @@
         <v>8</v>
       </c>
       <c r="C350" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351">
@@ -5012,7 +5012,7 @@
         <v>8</v>
       </c>
       <c r="C351" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352">
@@ -5025,7 +5025,7 @@
         <v>8</v>
       </c>
       <c r="C352" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353">
@@ -5038,7 +5038,7 @@
         <v>8</v>
       </c>
       <c r="C353" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="354">
@@ -5051,7 +5051,7 @@
         <v>8</v>
       </c>
       <c r="C354" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="355">
@@ -5064,7 +5064,7 @@
         <v>8</v>
       </c>
       <c r="C355" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356">
@@ -5077,7 +5077,7 @@
         <v>6</v>
       </c>
       <c r="C356" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357">
@@ -5090,7 +5090,7 @@
         <v>6</v>
       </c>
       <c r="C357" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358">
@@ -5103,7 +5103,7 @@
         <v>6</v>
       </c>
       <c r="C358" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359">
@@ -5116,7 +5116,7 @@
         <v>6</v>
       </c>
       <c r="C359" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="360">
@@ -5129,7 +5129,7 @@
         <v>6</v>
       </c>
       <c r="C360" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361">
@@ -5142,7 +5142,7 @@
         <v>6</v>
       </c>
       <c r="C361" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362">
@@ -5155,7 +5155,7 @@
         <v>6</v>
       </c>
       <c r="C362" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="363">
@@ -5168,7 +5168,7 @@
         <v>6</v>
       </c>
       <c r="C363" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="364">
@@ -5181,7 +5181,7 @@
         <v>8</v>
       </c>
       <c r="C364" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="C365" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366">
@@ -5207,7 +5207,7 @@
         <v>8</v>
       </c>
       <c r="C366" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367">
@@ -5220,7 +5220,7 @@
         <v>8</v>
       </c>
       <c r="C367" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368">
@@ -5233,7 +5233,7 @@
         <v>42</v>
       </c>
       <c r="C368" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="369">
@@ -5246,7 +5246,7 @@
         <v>2.5</v>
       </c>
       <c r="C369" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="370">
@@ -5259,7 +5259,7 @@
         <v>8</v>
       </c>
       <c r="C370" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371">
@@ -5272,7 +5272,7 @@
         <v>10</v>
       </c>
       <c r="C371" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="372">
@@ -5285,7 +5285,7 @@
         <v>10</v>
       </c>
       <c r="C372" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373">
@@ -5298,7 +5298,7 @@
         <v>10</v>
       </c>
       <c r="C373" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374">
@@ -5311,7 +5311,7 @@
         <v>10</v>
       </c>
       <c r="C374" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375">
@@ -5324,7 +5324,7 @@
         <v>10</v>
       </c>
       <c r="C375" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376">
@@ -5337,7 +5337,7 @@
         <v>10</v>
       </c>
       <c r="C376" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377">
@@ -5350,7 +5350,7 @@
         <v>10</v>
       </c>
       <c r="C377" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378">
@@ -5363,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="C378" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -5376,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="C379" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380">
@@ -5389,7 +5389,7 @@
         <v>3</v>
       </c>
       <c r="C380" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -5402,7 +5402,7 @@
         <v>3</v>
       </c>
       <c r="C381" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -5415,7 +5415,7 @@
         <v>3</v>
       </c>
       <c r="C382" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -5428,7 +5428,7 @@
         <v>3</v>
       </c>
       <c r="C383" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -5441,7 +5441,7 @@
         <v>3</v>
       </c>
       <c r="C384" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -5454,7 +5454,7 @@
         <v>3</v>
       </c>
       <c r="C385" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -5467,7 +5467,7 @@
         <v>3</v>
       </c>
       <c r="C386" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -5480,7 +5480,7 @@
         <v>3</v>
       </c>
       <c r="C387" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="C388" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -5506,7 +5506,7 @@
         <v>3</v>
       </c>
       <c r="C389" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390">
@@ -5519,7 +5519,7 @@
         <v>3</v>
       </c>
       <c r="C390" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -5532,7 +5532,7 @@
         <v>3</v>
       </c>
       <c r="C391" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -5545,7 +5545,7 @@
         <v>3</v>
       </c>
       <c r="C392" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -5558,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="C393" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -5571,7 +5571,7 @@
         <v>3</v>
       </c>
       <c r="C394" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -5584,7 +5584,7 @@
         <v>3</v>
       </c>
       <c r="C395" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -5597,7 +5597,7 @@
         <v>3</v>
       </c>
       <c r="C396" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397">
@@ -5610,7 +5610,7 @@
         <v>3</v>
       </c>
       <c r="C397" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -5623,7 +5623,7 @@
         <v>3</v>
       </c>
       <c r="C398" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -5636,7 +5636,7 @@
         <v>3</v>
       </c>
       <c r="C399" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -5649,7 +5649,7 @@
         <v>3</v>
       </c>
       <c r="C400" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -5662,7 +5662,7 @@
         <v>3</v>
       </c>
       <c r="C401" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -5675,7 +5675,7 @@
         <v>3</v>
       </c>
       <c r="C402" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -5688,7 +5688,7 @@
         <v>3</v>
       </c>
       <c r="C403" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -5701,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="C404" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -5714,7 +5714,7 @@
         <v>3</v>
       </c>
       <c r="C405" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -5727,7 +5727,7 @@
         <v>3</v>
       </c>
       <c r="C406" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -5740,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="C407" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -5753,7 +5753,7 @@
         <v>3</v>
       </c>
       <c r="C408" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -5766,7 +5766,7 @@
         <v>3</v>
       </c>
       <c r="C409" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -5779,7 +5779,7 @@
         <v>3</v>
       </c>
       <c r="C410" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -5792,7 +5792,7 @@
         <v>3</v>
       </c>
       <c r="C411" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -5805,7 +5805,7 @@
         <v>3</v>
       </c>
       <c r="C412" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -5818,7 +5818,7 @@
         <v>3</v>
       </c>
       <c r="C413" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -5831,7 +5831,7 @@
         <v>3</v>
       </c>
       <c r="C414" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -5844,7 +5844,7 @@
         <v>3</v>
       </c>
       <c r="C415" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -5857,7 +5857,7 @@
         <v>3</v>
       </c>
       <c r="C416" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417">
@@ -5870,7 +5870,7 @@
         <v>3</v>
       </c>
       <c r="C417" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418">
@@ -5883,7 +5883,7 @@
         <v>3</v>
       </c>
       <c r="C418" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419">
@@ -5896,7 +5896,7 @@
         <v>3</v>
       </c>
       <c r="C419" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -5909,7 +5909,7 @@
         <v>4.5</v>
       </c>
       <c r="C420" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="421">
@@ -5922,7 +5922,7 @@
         <v>4.5</v>
       </c>
       <c r="C421" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="422">
@@ -5935,7 +5935,7 @@
         <v>4.5</v>
       </c>
       <c r="C422" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="423">
@@ -5948,7 +5948,7 @@
         <v>4.5</v>
       </c>
       <c r="C423" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="424">
@@ -5961,7 +5961,7 @@
         <v>4.5</v>
       </c>
       <c r="C424" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="425">
@@ -5974,7 +5974,7 @@
         <v>4.5</v>
       </c>
       <c r="C425" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="426">
@@ -5987,7 +5987,7 @@
         <v>6</v>
       </c>
       <c r="C426" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427">
@@ -6000,7 +6000,7 @@
         <v>6</v>
       </c>
       <c r="C427" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="428">
@@ -6013,7 +6013,7 @@
         <v>10</v>
       </c>
       <c r="C428" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="429">
@@ -6026,7 +6026,7 @@
         <v>6</v>
       </c>
       <c r="C429" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="430">
@@ -6039,7 +6039,7 @@
         <v>6</v>
       </c>
       <c r="C430" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="431">
@@ -6052,7 +6052,7 @@
         <v>6</v>
       </c>
       <c r="C431" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432">
@@ -6065,7 +6065,7 @@
         <v>6</v>
       </c>
       <c r="C432" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="433">
@@ -6078,7 +6078,7 @@
         <v>6</v>
       </c>
       <c r="C433" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434">
@@ -6091,7 +6091,7 @@
         <v>8</v>
       </c>
       <c r="C434" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="435">
@@ -6104,7 +6104,7 @@
         <v>8</v>
       </c>
       <c r="C435" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="436">
@@ -6117,7 +6117,7 @@
         <v>3.5</v>
       </c>
       <c r="C436" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="437">
@@ -6130,7 +6130,7 @@
         <v>3.5</v>
       </c>
       <c r="C437" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="438">
@@ -6143,7 +6143,7 @@
         <v>12</v>
       </c>
       <c r="C438" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="439">
@@ -6156,7 +6156,7 @@
         <v>12</v>
       </c>
       <c r="C439" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="440">
@@ -6169,7 +6169,7 @@
         <v>12</v>
       </c>
       <c r="C440" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="441">
@@ -6182,7 +6182,7 @@
         <v>12</v>
       </c>
       <c r="C441" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="442">
@@ -6195,7 +6195,7 @@
         <v>12</v>
       </c>
       <c r="C442" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="443">
@@ -6208,7 +6208,7 @@
         <v>12</v>
       </c>
       <c r="C443" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="444">
@@ -6221,7 +6221,7 @@
         <v>12</v>
       </c>
       <c r="C444" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="445">
@@ -6234,7 +6234,7 @@
         <v>12</v>
       </c>
       <c r="C445" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="446">
@@ -6247,7 +6247,7 @@
         <v>12</v>
       </c>
       <c r="C446" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="447">
@@ -6260,7 +6260,7 @@
         <v>12</v>
       </c>
       <c r="C447" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="448">
@@ -6273,7 +6273,7 @@
         <v>12</v>
       </c>
       <c r="C448" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="449">
@@ -6299,7 +6299,7 @@
         <v>12</v>
       </c>
       <c r="C450" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="451">
@@ -6325,7 +6325,7 @@
         <v>12</v>
       </c>
       <c r="C452" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453">
@@ -6351,7 +6351,7 @@
         <v>12</v>
       </c>
       <c r="C454" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="455">
@@ -6364,7 +6364,7 @@
         <v>12</v>
       </c>
       <c r="C455" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="456">
@@ -6377,7 +6377,7 @@
         <v>12</v>
       </c>
       <c r="C456" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="457">
@@ -6390,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="C457" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="458">
@@ -6403,7 +6403,7 @@
         <v>42</v>
       </c>
       <c r="C458" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="459">
@@ -6416,7 +6416,7 @@
         <v>42</v>
       </c>
       <c r="C459" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="460">
@@ -6429,7 +6429,7 @@
         <v>44</v>
       </c>
       <c r="C460" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="461">
@@ -6442,7 +6442,7 @@
         <v>44</v>
       </c>
       <c r="C461" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="462">
@@ -6455,7 +6455,7 @@
         <v>44</v>
       </c>
       <c r="C462" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="463">
@@ -6468,7 +6468,7 @@
         <v>70</v>
       </c>
       <c r="C463" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="464">
@@ -6481,7 +6481,7 @@
         <v>70</v>
       </c>
       <c r="C464" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="465">
@@ -6494,7 +6494,7 @@
         <v>14</v>
       </c>
       <c r="C465" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="466">
@@ -6507,7 +6507,7 @@
         <v>14</v>
       </c>
       <c r="C466" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="467">
@@ -6520,7 +6520,7 @@
         <v>14</v>
       </c>
       <c r="C467" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="468">
@@ -6533,7 +6533,7 @@
         <v>14</v>
       </c>
       <c r="C468" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="469">
@@ -6546,7 +6546,7 @@
         <v>14</v>
       </c>
       <c r="C469" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="470">
@@ -6559,7 +6559,7 @@
         <v>14</v>
       </c>
       <c r="C470" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="471">
@@ -6572,7 +6572,7 @@
         <v>14</v>
       </c>
       <c r="C471" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="472">
@@ -6585,7 +6585,7 @@
         <v>16</v>
       </c>
       <c r="C472" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="473">
@@ -6598,7 +6598,7 @@
         <v>16</v>
       </c>
       <c r="C473" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="474">
@@ -6611,7 +6611,7 @@
         <v>16</v>
       </c>
       <c r="C474" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="475">
@@ -6624,7 +6624,7 @@
         <v>16</v>
       </c>
       <c r="C475" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="476">
@@ -6637,7 +6637,7 @@
         <v>16</v>
       </c>
       <c r="C476" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="477">
@@ -6650,7 +6650,7 @@
         <v>16</v>
       </c>
       <c r="C477" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="478">
@@ -6663,7 +6663,7 @@
         <v>20</v>
       </c>
       <c r="C478" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="479">
@@ -6676,7 +6676,7 @@
         <v>20</v>
       </c>
       <c r="C479" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="480">
@@ -6689,7 +6689,7 @@
         <v>20</v>
       </c>
       <c r="C480" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="481">
@@ -6702,7 +6702,7 @@
         <v>20</v>
       </c>
       <c r="C481" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="482">
@@ -6715,7 +6715,7 @@
         <v>16</v>
       </c>
       <c r="C482" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="483">
@@ -6728,7 +6728,7 @@
         <v>18</v>
       </c>
       <c r="C483" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="484">
@@ -6741,7 +6741,7 @@
         <v>18</v>
       </c>
       <c r="C484" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="485">
@@ -6754,7 +6754,7 @@
         <v>18</v>
       </c>
       <c r="C485" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="486">
@@ -6767,7 +6767,7 @@
         <v>18</v>
       </c>
       <c r="C486" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="487">
@@ -6780,7 +6780,7 @@
         <v>18</v>
       </c>
       <c r="C487" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="488">
@@ -6793,7 +6793,7 @@
         <v>18</v>
       </c>
       <c r="C488" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="489">
@@ -6806,7 +6806,7 @@
         <v>12</v>
       </c>
       <c r="C489" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="490">
@@ -6819,7 +6819,7 @@
         <v>12</v>
       </c>
       <c r="C490" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="491">
@@ -6832,7 +6832,7 @@
         <v>12</v>
       </c>
       <c r="C491" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="492">
@@ -6845,7 +6845,7 @@
         <v>4</v>
       </c>
       <c r="C492" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="493">
@@ -6858,7 +6858,7 @@
         <v>4</v>
       </c>
       <c r="C493" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494">
@@ -6871,7 +6871,7 @@
         <v>4</v>
       </c>
       <c r="C494" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="495">
@@ -6884,7 +6884,7 @@
         <v>4</v>
       </c>
       <c r="C495" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="496">
@@ -6897,7 +6897,7 @@
         <v>4</v>
       </c>
       <c r="C496" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497">
@@ -6910,7 +6910,7 @@
         <v>4</v>
       </c>
       <c r="C497" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="498">
@@ -6923,7 +6923,7 @@
         <v>3.5</v>
       </c>
       <c r="C498" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="499">
@@ -6936,7 +6936,7 @@
         <v>3.5</v>
       </c>
       <c r="C499" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="500">
@@ -6949,7 +6949,7 @@
         <v>3.5</v>
       </c>
       <c r="C500" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="501">
@@ -6962,7 +6962,7 @@
         <v>3.5</v>
       </c>
       <c r="C501" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="502">
@@ -6975,7 +6975,7 @@
         <v>3.5</v>
       </c>
       <c r="C502" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="503">
@@ -6988,7 +6988,7 @@
         <v>3.5</v>
       </c>
       <c r="C503" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="504">
@@ -7001,7 +7001,7 @@
         <v>3.5</v>
       </c>
       <c r="C504" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="505">
@@ -7014,7 +7014,7 @@
         <v>3.5</v>
       </c>
       <c r="C505" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="506">
@@ -7027,7 +7027,7 @@
         <v>3.5</v>
       </c>
       <c r="C506" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="507">
@@ -7040,7 +7040,7 @@
         <v>3.5</v>
       </c>
       <c r="C507" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="508">
@@ -7053,7 +7053,7 @@
         <v>6</v>
       </c>
       <c r="C508" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="509">
@@ -7066,7 +7066,7 @@
         <v>6</v>
       </c>
       <c r="C509" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="510">
@@ -7079,7 +7079,7 @@
         <v>48</v>
       </c>
       <c r="C510" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="511">
@@ -7092,7 +7092,7 @@
         <v>48</v>
       </c>
       <c r="C511" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="512">
@@ -7105,7 +7105,7 @@
         <v>48</v>
       </c>
       <c r="C512" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="513">
@@ -7118,7 +7118,7 @@
         <v>3</v>
       </c>
       <c r="C513" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -7131,7 +7131,7 @@
         <v>30</v>
       </c>
       <c r="C514" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="515">
@@ -7144,7 +7144,7 @@
         <v>30</v>
       </c>
       <c r="C515" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="516">
@@ -7157,7 +7157,7 @@
         <v>27</v>
       </c>
       <c r="C516" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="517">
@@ -7170,7 +7170,7 @@
         <v>27</v>
       </c>
       <c r="C517" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="518">
@@ -7183,7 +7183,7 @@
         <v>27</v>
       </c>
       <c r="C518" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="519">
@@ -7196,7 +7196,7 @@
         <v>27</v>
       </c>
       <c r="C519" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="520">
@@ -7209,7 +7209,7 @@
         <v>24</v>
       </c>
       <c r="C520" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="521">
@@ -7222,7 +7222,7 @@
         <v>24</v>
       </c>
       <c r="C521" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="522">
@@ -7235,7 +7235,7 @@
         <v>24</v>
       </c>
       <c r="C522" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="523">
@@ -7248,7 +7248,7 @@
         <v>24</v>
       </c>
       <c r="C523" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="524">
@@ -7261,7 +7261,7 @@
         <v>30</v>
       </c>
       <c r="C524" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="525">
@@ -7274,7 +7274,7 @@
         <v>30</v>
       </c>
       <c r="C525" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="526">
@@ -7287,7 +7287,7 @@
         <v>30</v>
       </c>
       <c r="C526" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="527">
@@ -7300,7 +7300,7 @@
         <v>30</v>
       </c>
       <c r="C527" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="528">
@@ -7313,7 +7313,7 @@
         <v>30</v>
       </c>
       <c r="C528" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="529">
@@ -7326,7 +7326,7 @@
         <v>30</v>
       </c>
       <c r="C529" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="530">
@@ -7339,7 +7339,7 @@
         <v>30</v>
       </c>
       <c r="C530" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="531">
@@ -7352,7 +7352,7 @@
         <v>18</v>
       </c>
       <c r="C531" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="532">
@@ -7365,7 +7365,7 @@
         <v>18</v>
       </c>
       <c r="C532" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="533">
@@ -7378,7 +7378,7 @@
         <v>18</v>
       </c>
       <c r="C533" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="534">
@@ -7391,7 +7391,7 @@
         <v>4.5</v>
       </c>
       <c r="C534" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="535">
@@ -7404,7 +7404,7 @@
         <v>4.5</v>
       </c>
       <c r="C535" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="536">
@@ -7417,7 +7417,7 @@
         <v>31</v>
       </c>
       <c r="C536" t="n">
-        <v>15.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="537">
@@ -7430,7 +7430,7 @@
         <v>31</v>
       </c>
       <c r="C537" t="n">
-        <v>15.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="538">
@@ -7443,7 +7443,7 @@
         <v>31</v>
       </c>
       <c r="C538" t="n">
-        <v>15.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="539">
@@ -7456,7 +7456,7 @@
         <v>31</v>
       </c>
       <c r="C539" t="n">
-        <v>15.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="540">
@@ -7469,7 +7469,7 @@
         <v>31</v>
       </c>
       <c r="C540" t="n">
-        <v>15.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="541">
@@ -7482,7 +7482,7 @@
         <v>31</v>
       </c>
       <c r="C541" t="n">
-        <v>15.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="542">
@@ -7495,7 +7495,7 @@
         <v>25</v>
       </c>
       <c r="C542" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="543">
@@ -7508,7 +7508,7 @@
         <v>25</v>
       </c>
       <c r="C543" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="544">
@@ -7521,7 +7521,7 @@
         <v>25</v>
       </c>
       <c r="C544" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="545">
@@ -7534,7 +7534,7 @@
         <v>25</v>
       </c>
       <c r="C545" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="546">
@@ -7547,7 +7547,7 @@
         <v>25</v>
       </c>
       <c r="C546" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="547">
@@ -7560,7 +7560,7 @@
         <v>18</v>
       </c>
       <c r="C547" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="548">
@@ -7573,7 +7573,7 @@
         <v>18</v>
       </c>
       <c r="C548" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="549">
@@ -7586,7 +7586,7 @@
         <v>18</v>
       </c>
       <c r="C549" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="550">
@@ -7599,7 +7599,7 @@
         <v>18</v>
       </c>
       <c r="C550" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="551">
@@ -7612,7 +7612,7 @@
         <v>18</v>
       </c>
       <c r="C551" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="552">
@@ -7625,7 +7625,7 @@
         <v>18</v>
       </c>
       <c r="C552" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="553">
@@ -7638,7 +7638,7 @@
         <v>44</v>
       </c>
       <c r="C553" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="554">
@@ -7651,7 +7651,7 @@
         <v>44</v>
       </c>
       <c r="C554" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="555">
@@ -7664,7 +7664,7 @@
         <v>7</v>
       </c>
       <c r="C555" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="556">
@@ -7677,7 +7677,7 @@
         <v>5</v>
       </c>
       <c r="C556" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557">
@@ -7690,7 +7690,7 @@
         <v>5</v>
       </c>
       <c r="C557" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="558">
@@ -7703,7 +7703,7 @@
         <v>5</v>
       </c>
       <c r="C558" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="559">
@@ -7716,7 +7716,7 @@
         <v>6</v>
       </c>
       <c r="C559" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560">
@@ -7729,7 +7729,7 @@
         <v>6</v>
       </c>
       <c r="C560" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561">
@@ -7742,7 +7742,7 @@
         <v>6</v>
       </c>
       <c r="C561" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562">
@@ -7755,7 +7755,7 @@
         <v>8</v>
       </c>
       <c r="C562" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="563">
@@ -7768,7 +7768,7 @@
         <v>8</v>
       </c>
       <c r="C563" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="564">
@@ -7781,7 +7781,7 @@
         <v>8</v>
       </c>
       <c r="C564" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="565">
@@ -7794,7 +7794,7 @@
         <v>8</v>
       </c>
       <c r="C565" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="566">
@@ -7807,7 +7807,7 @@
         <v>6</v>
       </c>
       <c r="C566" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567">
@@ -7820,7 +7820,7 @@
         <v>6</v>
       </c>
       <c r="C567" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="568">
@@ -7833,7 +7833,7 @@
         <v>6</v>
       </c>
       <c r="C568" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569">
@@ -7846,7 +7846,7 @@
         <v>5</v>
       </c>
       <c r="C569" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570">
@@ -7859,7 +7859,7 @@
         <v>6</v>
       </c>
       <c r="C570" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571">
@@ -7872,7 +7872,7 @@
         <v>6</v>
       </c>
       <c r="C571" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="572">
@@ -7885,7 +7885,7 @@
         <v>8</v>
       </c>
       <c r="C572" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="573">
@@ -7898,7 +7898,7 @@
         <v>8</v>
       </c>
       <c r="C573" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="574">
@@ -7911,7 +7911,7 @@
         <v>8</v>
       </c>
       <c r="C574" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="575">
@@ -7924,7 +7924,7 @@
         <v>8</v>
       </c>
       <c r="C575" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="576">
@@ -7937,7 +7937,7 @@
         <v>8</v>
       </c>
       <c r="C576" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="577">
@@ -7950,7 +7950,7 @@
         <v>8</v>
       </c>
       <c r="C577" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="578">
@@ -7963,7 +7963,7 @@
         <v>6</v>
       </c>
       <c r="C578" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="579">
@@ -7976,7 +7976,7 @@
         <v>6</v>
       </c>
       <c r="C579" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="580">
@@ -7989,7 +7989,7 @@
         <v>8</v>
       </c>
       <c r="C580" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="581">
@@ -8002,7 +8002,7 @@
         <v>6</v>
       </c>
       <c r="C581" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="582">
@@ -8015,7 +8015,7 @@
         <v>6</v>
       </c>
       <c r="C582" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="583">
@@ -8028,7 +8028,7 @@
         <v>6</v>
       </c>
       <c r="C583" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="584">
@@ -8041,7 +8041,7 @@
         <v>6</v>
       </c>
       <c r="C584" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="585">
@@ -8054,7 +8054,7 @@
         <v>6</v>
       </c>
       <c r="C585" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="586">
@@ -8067,7 +8067,7 @@
         <v>5</v>
       </c>
       <c r="C586" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="587">
@@ -8080,7 +8080,7 @@
         <v>20</v>
       </c>
       <c r="C587" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="588">
@@ -8093,7 +8093,7 @@
         <v>20</v>
       </c>
       <c r="C588" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="589">
@@ -8106,7 +8106,7 @@
         <v>20</v>
       </c>
       <c r="C589" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="590">
@@ -8119,7 +8119,7 @@
         <v>4</v>
       </c>
       <c r="C590" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="591">
@@ -8132,7 +8132,7 @@
         <v>4</v>
       </c>
       <c r="C591" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="592">
@@ -8145,7 +8145,7 @@
         <v>4</v>
       </c>
       <c r="C592" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="593">
@@ -8158,7 +8158,7 @@
         <v>4</v>
       </c>
       <c r="C593" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="594">
@@ -8171,7 +8171,7 @@
         <v>4</v>
       </c>
       <c r="C594" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="595">
@@ -8184,7 +8184,7 @@
         <v>4</v>
       </c>
       <c r="C595" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="596">
@@ -8197,7 +8197,7 @@
         <v>6</v>
       </c>
       <c r="C596" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="597">
@@ -8210,7 +8210,7 @@
         <v>6</v>
       </c>
       <c r="C597" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="598">
@@ -8223,7 +8223,7 @@
         <v>6</v>
       </c>
       <c r="C598" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="599">
@@ -8236,7 +8236,7 @@
         <v>6</v>
       </c>
       <c r="C599" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="600">
@@ -8249,7 +8249,7 @@
         <v>6</v>
       </c>
       <c r="C600" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="601">
@@ -8262,7 +8262,7 @@
         <v>6</v>
       </c>
       <c r="C601" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="602">
@@ -8275,7 +8275,7 @@
         <v>6</v>
       </c>
       <c r="C602" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="603">
@@ -8288,7 +8288,7 @@
         <v>6</v>
       </c>
       <c r="C603" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="604">
@@ -8301,7 +8301,7 @@
         <v>6</v>
       </c>
       <c r="C604" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="605">
@@ -8314,7 +8314,7 @@
         <v>6</v>
       </c>
       <c r="C605" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="606">
@@ -8327,7 +8327,7 @@
         <v>6</v>
       </c>
       <c r="C606" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="607">
@@ -8340,7 +8340,7 @@
         <v>6</v>
       </c>
       <c r="C607" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="608">
@@ -8353,7 +8353,7 @@
         <v>6</v>
       </c>
       <c r="C608" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="609">
@@ -8366,7 +8366,7 @@
         <v>6</v>
       </c>
       <c r="C609" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="610">
@@ -8379,7 +8379,7 @@
         <v>6</v>
       </c>
       <c r="C610" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="611">
@@ -8392,7 +8392,7 @@
         <v>6</v>
       </c>
       <c r="C611" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="612">
@@ -8405,7 +8405,7 @@
         <v>6</v>
       </c>
       <c r="C612" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="613">
@@ -8418,7 +8418,7 @@
         <v>6</v>
       </c>
       <c r="C613" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="614">
@@ -8431,7 +8431,7 @@
         <v>3</v>
       </c>
       <c r="C614" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -8444,7 +8444,7 @@
         <v>3</v>
       </c>
       <c r="C615" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -8457,7 +8457,7 @@
         <v>3.5</v>
       </c>
       <c r="C616" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="617">
@@ -8470,7 +8470,7 @@
         <v>3.5</v>
       </c>
       <c r="C617" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="618">
@@ -8483,7 +8483,7 @@
         <v>4.5</v>
       </c>
       <c r="C618" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="619">
@@ -8496,7 +8496,7 @@
         <v>4.5</v>
       </c>
       <c r="C619" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="620">
@@ -8509,7 +8509,7 @@
         <v>4.5</v>
       </c>
       <c r="C620" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="621">
@@ -8522,7 +8522,7 @@
         <v>12</v>
       </c>
       <c r="C621" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="622">
@@ -8535,7 +8535,7 @@
         <v>3.5</v>
       </c>
       <c r="C622" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="623">
@@ -8548,7 +8548,7 @@
         <v>3.5</v>
       </c>
       <c r="C623" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="624">
@@ -8561,7 +8561,7 @@
         <v>3.5</v>
       </c>
       <c r="C624" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="625">
@@ -8574,7 +8574,7 @@
         <v>3.5</v>
       </c>
       <c r="C625" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="626">
@@ -8587,7 +8587,7 @@
         <v>3.5</v>
       </c>
       <c r="C626" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="627">
@@ -8600,7 +8600,7 @@
         <v>20</v>
       </c>
       <c r="C627" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="628">
@@ -8613,7 +8613,7 @@
         <v>20</v>
       </c>
       <c r="C628" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="629">
@@ -8626,7 +8626,7 @@
         <v>20</v>
       </c>
       <c r="C629" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="630">
@@ -8639,7 +8639,7 @@
         <v>20</v>
       </c>
       <c r="C630" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="631">
@@ -8652,7 +8652,7 @@
         <v>9</v>
       </c>
       <c r="C631" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="632">
@@ -8665,7 +8665,7 @@
         <v>9</v>
       </c>
       <c r="C632" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="633">
@@ -8678,7 +8678,7 @@
         <v>9</v>
       </c>
       <c r="C633" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="634">
@@ -8691,7 +8691,7 @@
         <v>9</v>
       </c>
       <c r="C634" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="635">
@@ -8704,7 +8704,7 @@
         <v>14</v>
       </c>
       <c r="C635" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="636">
@@ -8717,7 +8717,7 @@
         <v>14</v>
       </c>
       <c r="C636" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="637">
@@ -8730,7 +8730,7 @@
         <v>56</v>
       </c>
       <c r="C637" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="638">
@@ -8743,7 +8743,7 @@
         <v>8</v>
       </c>
       <c r="C638" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="639">
@@ -8756,7 +8756,7 @@
         <v>8</v>
       </c>
       <c r="C639" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="640">
@@ -8769,7 +8769,7 @@
         <v>8</v>
       </c>
       <c r="C640" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="641">
@@ -8795,7 +8795,7 @@
         <v>11</v>
       </c>
       <c r="C642" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="643">
@@ -8808,7 +8808,7 @@
         <v>11</v>
       </c>
       <c r="C643" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="644">
@@ -8821,7 +8821,7 @@
         <v>11</v>
       </c>
       <c r="C644" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="645">
@@ -8834,7 +8834,7 @@
         <v>11</v>
       </c>
       <c r="C645" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="646">
@@ -8847,7 +8847,7 @@
         <v>38</v>
       </c>
       <c r="C646" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="647">
@@ -8860,7 +8860,7 @@
         <v>38</v>
       </c>
       <c r="C647" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="648">
@@ -8873,7 +8873,7 @@
         <v>38</v>
       </c>
       <c r="C648" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="649">
@@ -8886,7 +8886,7 @@
         <v>52</v>
       </c>
       <c r="C649" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="650">
@@ -8899,7 +8899,7 @@
         <v>52</v>
       </c>
       <c r="C650" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="651">
@@ -8912,7 +8912,7 @@
         <v>52</v>
       </c>
       <c r="C651" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="652">
@@ -8925,7 +8925,7 @@
         <v>52</v>
       </c>
       <c r="C652" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="653">
@@ -8938,7 +8938,7 @@
         <v>56</v>
       </c>
       <c r="C653" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="654">
@@ -8951,7 +8951,7 @@
         <v>56</v>
       </c>
       <c r="C654" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="655">
@@ -8964,7 +8964,7 @@
         <v>54</v>
       </c>
       <c r="C655" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="656">
@@ -8977,7 +8977,7 @@
         <v>54</v>
       </c>
       <c r="C656" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="657">
@@ -8990,7 +8990,7 @@
         <v>54</v>
       </c>
       <c r="C657" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="658">
@@ -9003,7 +9003,7 @@
         <v>12</v>
       </c>
       <c r="C658" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="659">
@@ -9016,7 +9016,7 @@
         <v>12</v>
       </c>
       <c r="C659" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="660">
@@ -9029,7 +9029,7 @@
         <v>12</v>
       </c>
       <c r="C660" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="661">
@@ -9042,7 +9042,7 @@
         <v>12</v>
       </c>
       <c r="C661" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="662">
@@ -9055,7 +9055,7 @@
         <v>12</v>
       </c>
       <c r="C662" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="663">
@@ -9068,7 +9068,7 @@
         <v>26</v>
       </c>
       <c r="C663" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="664">
@@ -9081,7 +9081,7 @@
         <v>26</v>
       </c>
       <c r="C664" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="665">
@@ -9094,7 +9094,7 @@
         <v>26</v>
       </c>
       <c r="C665" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="666">
@@ -9107,7 +9107,7 @@
         <v>8</v>
       </c>
       <c r="C666" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="667">
@@ -9120,7 +9120,7 @@
         <v>8</v>
       </c>
       <c r="C667" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="668">
@@ -9133,7 +9133,7 @@
         <v>8</v>
       </c>
       <c r="C668" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="669">
@@ -9146,7 +9146,7 @@
         <v>8</v>
       </c>
       <c r="C669" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="670">
@@ -9159,7 +9159,7 @@
         <v>8</v>
       </c>
       <c r="C670" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="671">
@@ -9172,7 +9172,7 @@
         <v>8</v>
       </c>
       <c r="C671" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="672">
@@ -9185,7 +9185,7 @@
         <v>8</v>
       </c>
       <c r="C672" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="673">
@@ -9198,7 +9198,7 @@
         <v>8</v>
       </c>
       <c r="C673" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="674">
@@ -9211,7 +9211,7 @@
         <v>70</v>
       </c>
       <c r="C674" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="675">
@@ -9224,7 +9224,7 @@
         <v>70</v>
       </c>
       <c r="C675" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="676">
@@ -9237,7 +9237,7 @@
         <v>70</v>
       </c>
       <c r="C676" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="677">
@@ -9250,7 +9250,7 @@
         <v>70</v>
       </c>
       <c r="C677" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="678">
@@ -9263,7 +9263,7 @@
         <v>70</v>
       </c>
       <c r="C678" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="679">
@@ -9276,7 +9276,7 @@
         <v>70</v>
       </c>
       <c r="C679" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="680">
@@ -9289,7 +9289,7 @@
         <v>70</v>
       </c>
       <c r="C680" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="681">
@@ -9302,7 +9302,7 @@
         <v>11</v>
       </c>
       <c r="C681" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="682">
@@ -9315,7 +9315,7 @@
         <v>11</v>
       </c>
       <c r="C682" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="683">
@@ -9328,7 +9328,7 @@
         <v>14</v>
       </c>
       <c r="C683" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="684">
@@ -9341,7 +9341,7 @@
         <v>14</v>
       </c>
       <c r="C684" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="685">
@@ -9354,7 +9354,7 @@
         <v>14</v>
       </c>
       <c r="C685" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="686">
@@ -9367,7 +9367,7 @@
         <v>18</v>
       </c>
       <c r="C686" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="687">
@@ -9380,7 +9380,7 @@
         <v>18</v>
       </c>
       <c r="C687" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="688">
@@ -9393,7 +9393,7 @@
         <v>18</v>
       </c>
       <c r="C688" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="689">
@@ -9406,7 +9406,7 @@
         <v>18</v>
       </c>
       <c r="C689" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="690">
@@ -9419,7 +9419,7 @@
         <v>10</v>
       </c>
       <c r="C690" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="691">
@@ -9432,7 +9432,7 @@
         <v>10</v>
       </c>
       <c r="C691" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="692">
@@ -9445,7 +9445,7 @@
         <v>10</v>
       </c>
       <c r="C692" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="693">
@@ -9458,7 +9458,7 @@
         <v>10</v>
       </c>
       <c r="C693" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="694">
@@ -9471,7 +9471,7 @@
         <v>10</v>
       </c>
       <c r="C694" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="695">
@@ -9484,7 +9484,7 @@
         <v>10</v>
       </c>
       <c r="C695" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="696">
@@ -9497,7 +9497,7 @@
         <v>10</v>
       </c>
       <c r="C696" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="697">
@@ -9510,7 +9510,7 @@
         <v>10</v>
       </c>
       <c r="C697" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="698">
@@ -9523,7 +9523,7 @@
         <v>10</v>
       </c>
       <c r="C698" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="699">
@@ -9536,7 +9536,7 @@
         <v>15</v>
       </c>
       <c r="C699" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="700">
@@ -9549,7 +9549,7 @@
         <v>11</v>
       </c>
       <c r="C700" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="701">
@@ -9562,7 +9562,7 @@
         <v>11</v>
       </c>
       <c r="C701" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="702">
@@ -9575,7 +9575,7 @@
         <v>11</v>
       </c>
       <c r="C702" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="703">
@@ -9588,7 +9588,7 @@
         <v>11</v>
       </c>
       <c r="C703" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="704">
@@ -9601,7 +9601,7 @@
         <v>11</v>
       </c>
       <c r="C704" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="705">
@@ -9614,7 +9614,7 @@
         <v>15</v>
       </c>
       <c r="C705" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="706">
@@ -9627,7 +9627,7 @@
         <v>15</v>
       </c>
       <c r="C706" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="707">
@@ -9640,7 +9640,7 @@
         <v>15</v>
       </c>
       <c r="C707" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="708">
@@ -9653,7 +9653,7 @@
         <v>15</v>
       </c>
       <c r="C708" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="709">
@@ -9666,7 +9666,7 @@
         <v>15</v>
       </c>
       <c r="C709" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="710">
@@ -9679,7 +9679,7 @@
         <v>15</v>
       </c>
       <c r="C710" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="711">
@@ -9692,7 +9692,7 @@
         <v>15</v>
       </c>
       <c r="C711" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="712">
@@ -9705,7 +9705,7 @@
         <v>15</v>
       </c>
       <c r="C712" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="713">
@@ -9718,7 +9718,7 @@
         <v>5</v>
       </c>
       <c r="C713" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="714">
@@ -9731,7 +9731,7 @@
         <v>5</v>
       </c>
       <c r="C714" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="715">
@@ -9744,7 +9744,7 @@
         <v>5</v>
       </c>
       <c r="C715" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="716">
@@ -9757,7 +9757,7 @@
         <v>5</v>
       </c>
       <c r="C716" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="717">
@@ -9770,7 +9770,7 @@
         <v>5</v>
       </c>
       <c r="C717" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="718">
@@ -9783,7 +9783,7 @@
         <v>5</v>
       </c>
       <c r="C718" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="719">
@@ -9796,7 +9796,7 @@
         <v>5</v>
       </c>
       <c r="C719" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="720">
@@ -9809,7 +9809,7 @@
         <v>10</v>
       </c>
       <c r="C720" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="721">
@@ -9822,7 +9822,7 @@
         <v>10</v>
       </c>
       <c r="C721" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="722">
@@ -9835,7 +9835,7 @@
         <v>14</v>
       </c>
       <c r="C722" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="723">
@@ -9848,7 +9848,7 @@
         <v>14</v>
       </c>
       <c r="C723" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="724">
@@ -9861,7 +9861,7 @@
         <v>14</v>
       </c>
       <c r="C724" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="725">
@@ -9874,7 +9874,7 @@
         <v>14</v>
       </c>
       <c r="C725" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="726">
@@ -9887,7 +9887,7 @@
         <v>14</v>
       </c>
       <c r="C726" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="727">
@@ -9900,7 +9900,7 @@
         <v>22</v>
       </c>
       <c r="C727" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="728">
@@ -9913,7 +9913,7 @@
         <v>22</v>
       </c>
       <c r="C728" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="729">
@@ -9926,7 +9926,7 @@
         <v>22</v>
       </c>
       <c r="C729" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="730">
@@ -9939,7 +9939,7 @@
         <v>22</v>
       </c>
       <c r="C730" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="731">
@@ -9952,7 +9952,7 @@
         <v>22</v>
       </c>
       <c r="C731" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="732">
@@ -9965,7 +9965,7 @@
         <v>22</v>
       </c>
       <c r="C732" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="733">
@@ -9978,7 +9978,7 @@
         <v>18</v>
       </c>
       <c r="C733" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="734">
@@ -9991,7 +9991,7 @@
         <v>18</v>
       </c>
       <c r="C734" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="735">
@@ -10004,7 +10004,7 @@
         <v>18</v>
       </c>
       <c r="C735" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="736">
@@ -10017,7 +10017,7 @@
         <v>18</v>
       </c>
       <c r="C736" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="737">
@@ -10030,7 +10030,7 @@
         <v>13</v>
       </c>
       <c r="C737" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="738">
@@ -10043,7 +10043,7 @@
         <v>10</v>
       </c>
       <c r="C738" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="739">
@@ -10056,7 +10056,7 @@
         <v>10</v>
       </c>
       <c r="C739" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="740">
@@ -10069,7 +10069,7 @@
         <v>10</v>
       </c>
       <c r="C740" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="741">
@@ -10082,7 +10082,7 @@
         <v>10</v>
       </c>
       <c r="C741" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="742">
@@ -10095,7 +10095,7 @@
         <v>7</v>
       </c>
       <c r="C742" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="743">
@@ -10108,7 +10108,7 @@
         <v>28</v>
       </c>
       <c r="C743" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="744">
@@ -10121,7 +10121,7 @@
         <v>28</v>
       </c>
       <c r="C744" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="745">
@@ -10134,7 +10134,7 @@
         <v>28</v>
       </c>
       <c r="C745" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="746">
@@ -10147,7 +10147,7 @@
         <v>28</v>
       </c>
       <c r="C746" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="747">
@@ -10160,7 +10160,7 @@
         <v>28</v>
       </c>
       <c r="C747" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="748">
@@ -10173,7 +10173,7 @@
         <v>28</v>
       </c>
       <c r="C748" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="749">
@@ -10186,7 +10186,7 @@
         <v>28</v>
       </c>
       <c r="C749" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="750">
@@ -10199,7 +10199,7 @@
         <v>7</v>
       </c>
       <c r="C750" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="751">
@@ -10212,7 +10212,7 @@
         <v>3</v>
       </c>
       <c r="C751" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -10225,7 +10225,7 @@
         <v>10</v>
       </c>
       <c r="C752" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="753">
@@ -10238,7 +10238,7 @@
         <v>14</v>
       </c>
       <c r="C753" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="754">
@@ -10251,7 +10251,7 @@
         <v>10</v>
       </c>
       <c r="C754" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="755">
@@ -10277,7 +10277,7 @@
         <v>13.5</v>
       </c>
       <c r="C756" t="n">
-        <v>6.75</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="757">
@@ -10290,7 +10290,7 @@
         <v>14</v>
       </c>
       <c r="C757" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="758">
@@ -10303,7 +10303,7 @@
         <v>14</v>
       </c>
       <c r="C758" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="759">
@@ -10316,7 +10316,7 @@
         <v>10</v>
       </c>
       <c r="C759" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="760">
@@ -10329,7 +10329,7 @@
         <v>8</v>
       </c>
       <c r="C760" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="761">
@@ -10342,7 +10342,7 @@
         <v>4</v>
       </c>
       <c r="C761" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="762">
@@ -10355,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="C762" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="763">
@@ -10368,7 +10368,7 @@
         <v>7</v>
       </c>
       <c r="C763" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="764">
@@ -10381,7 +10381,7 @@
         <v>7</v>
       </c>
       <c r="C764" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="765">
@@ -10394,7 +10394,7 @@
         <v>7</v>
       </c>
       <c r="C765" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="766">
@@ -10407,7 +10407,7 @@
         <v>30</v>
       </c>
       <c r="C766" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="767">
@@ -10420,7 +10420,7 @@
         <v>30</v>
       </c>
       <c r="C767" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="768">
@@ -10433,7 +10433,7 @@
         <v>30</v>
       </c>
       <c r="C768" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="769">
@@ -10446,7 +10446,7 @@
         <v>30</v>
       </c>
       <c r="C769" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="770">
@@ -10459,7 +10459,7 @@
         <v>30</v>
       </c>
       <c r="C770" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="771">
@@ -10472,7 +10472,7 @@
         <v>10</v>
       </c>
       <c r="C771" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="772">
@@ -10485,7 +10485,7 @@
         <v>10</v>
       </c>
       <c r="C772" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="773">
@@ -10498,7 +10498,7 @@
         <v>10</v>
       </c>
       <c r="C773" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="774">
@@ -10511,7 +10511,7 @@
         <v>10</v>
       </c>
       <c r="C774" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="775">
@@ -10524,7 +10524,7 @@
         <v>10</v>
       </c>
       <c r="C775" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="776">
@@ -10537,7 +10537,7 @@
         <v>10</v>
       </c>
       <c r="C776" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="777">
@@ -10550,7 +10550,7 @@
         <v>30</v>
       </c>
       <c r="C777" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="778">
@@ -10563,7 +10563,7 @@
         <v>30</v>
       </c>
       <c r="C778" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="779">
@@ -10576,7 +10576,7 @@
         <v>10</v>
       </c>
       <c r="C779" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="780">
@@ -10589,7 +10589,7 @@
         <v>10</v>
       </c>
       <c r="C780" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="781">
@@ -10602,7 +10602,7 @@
         <v>10</v>
       </c>
       <c r="C781" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="782">
@@ -10615,7 +10615,7 @@
         <v>10</v>
       </c>
       <c r="C782" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="783">
@@ -10628,7 +10628,7 @@
         <v>10</v>
       </c>
       <c r="C783" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="784">
@@ -10641,7 +10641,7 @@
         <v>10</v>
       </c>
       <c r="C784" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="785">
@@ -10654,7 +10654,7 @@
         <v>10</v>
       </c>
       <c r="C785" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="786">
@@ -10667,7 +10667,7 @@
         <v>10</v>
       </c>
       <c r="C786" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="787">
@@ -10680,7 +10680,7 @@
         <v>10</v>
       </c>
       <c r="C787" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="788">
@@ -10693,7 +10693,7 @@
         <v>10</v>
       </c>
       <c r="C788" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="789">
@@ -10706,7 +10706,7 @@
         <v>10</v>
       </c>
       <c r="C789" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="790">
@@ -10719,7 +10719,7 @@
         <v>10</v>
       </c>
       <c r="C790" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="791">
@@ -10732,7 +10732,7 @@
         <v>10</v>
       </c>
       <c r="C791" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="792">
@@ -10745,7 +10745,7 @@
         <v>10</v>
       </c>
       <c r="C792" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="793">
@@ -10758,7 +10758,7 @@
         <v>10</v>
       </c>
       <c r="C793" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="794">
@@ -10771,7 +10771,7 @@
         <v>10</v>
       </c>
       <c r="C794" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="795">
@@ -10784,7 +10784,7 @@
         <v>10</v>
       </c>
       <c r="C795" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="796">
@@ -10797,7 +10797,7 @@
         <v>10</v>
       </c>
       <c r="C796" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="797">
@@ -10810,7 +10810,7 @@
         <v>10</v>
       </c>
       <c r="C797" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="798">
@@ -10823,7 +10823,7 @@
         <v>10</v>
       </c>
       <c r="C798" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="799">
@@ -10836,7 +10836,7 @@
         <v>10</v>
       </c>
       <c r="C799" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="800">
@@ -10849,7 +10849,7 @@
         <v>12</v>
       </c>
       <c r="C800" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="801">
@@ -10862,7 +10862,7 @@
         <v>10</v>
       </c>
       <c r="C801" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="802">
@@ -10875,7 +10875,7 @@
         <v>10</v>
       </c>
       <c r="C802" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="803">
@@ -10888,7 +10888,7 @@
         <v>10</v>
       </c>
       <c r="C803" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="804">
@@ -10901,7 +10901,7 @@
         <v>10</v>
       </c>
       <c r="C804" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="805">
@@ -10914,7 +10914,7 @@
         <v>10</v>
       </c>
       <c r="C805" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="806">
@@ -10927,7 +10927,7 @@
         <v>10</v>
       </c>
       <c r="C806" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="807">
@@ -10940,7 +10940,7 @@
         <v>10</v>
       </c>
       <c r="C807" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="808">
@@ -10953,7 +10953,7 @@
         <v>10</v>
       </c>
       <c r="C808" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="809">
@@ -10966,7 +10966,7 @@
         <v>10</v>
       </c>
       <c r="C809" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="810">
@@ -10979,7 +10979,7 @@
         <v>10</v>
       </c>
       <c r="C810" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="811">
@@ -10992,7 +10992,7 @@
         <v>10</v>
       </c>
       <c r="C811" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="812">
@@ -11005,7 +11005,7 @@
         <v>10</v>
       </c>
       <c r="C812" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="813">
@@ -11018,7 +11018,7 @@
         <v>10</v>
       </c>
       <c r="C813" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="814">
@@ -11031,7 +11031,7 @@
         <v>30</v>
       </c>
       <c r="C814" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="815">
@@ -11044,7 +11044,7 @@
         <v>10</v>
       </c>
       <c r="C815" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="816">
@@ -11057,7 +11057,7 @@
         <v>10</v>
       </c>
       <c r="C816" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="817">
@@ -11070,7 +11070,7 @@
         <v>10</v>
       </c>
       <c r="C817" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="818">
@@ -11083,7 +11083,7 @@
         <v>10</v>
       </c>
       <c r="C818" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="819">
@@ -11096,7 +11096,7 @@
         <v>10</v>
       </c>
       <c r="C819" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="820">
@@ -11122,7 +11122,7 @@
         <v>10</v>
       </c>
       <c r="C821" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="822">
@@ -11135,7 +11135,7 @@
         <v>10</v>
       </c>
       <c r="C822" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="823">
@@ -11148,7 +11148,7 @@
         <v>10</v>
       </c>
       <c r="C823" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="824">
@@ -11161,7 +11161,7 @@
         <v>10</v>
       </c>
       <c r="C824" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="825">
@@ -11174,7 +11174,7 @@
         <v>10</v>
       </c>
       <c r="C825" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="826">
@@ -11187,7 +11187,7 @@
         <v>10</v>
       </c>
       <c r="C826" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="827">
@@ -11200,7 +11200,7 @@
         <v>10</v>
       </c>
       <c r="C827" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="828">
@@ -11213,7 +11213,7 @@
         <v>10</v>
       </c>
       <c r="C828" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="829">
@@ -11226,7 +11226,7 @@
         <v>10</v>
       </c>
       <c r="C829" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="830">
@@ -11239,7 +11239,7 @@
         <v>10</v>
       </c>
       <c r="C830" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="831">
@@ -11252,7 +11252,7 @@
         <v>10</v>
       </c>
       <c r="C831" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="832">
@@ -11265,7 +11265,7 @@
         <v>10</v>
       </c>
       <c r="C832" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="833">
@@ -11278,7 +11278,7 @@
         <v>10</v>
       </c>
       <c r="C833" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="834">
@@ -11291,7 +11291,7 @@
         <v>10</v>
       </c>
       <c r="C834" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="835">
@@ -11304,7 +11304,7 @@
         <v>10</v>
       </c>
       <c r="C835" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="836">
@@ -11317,7 +11317,7 @@
         <v>10</v>
       </c>
       <c r="C836" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="837">
@@ -11330,7 +11330,7 @@
         <v>10</v>
       </c>
       <c r="C837" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="838">
@@ -11343,7 +11343,7 @@
         <v>10</v>
       </c>
       <c r="C838" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="839">
@@ -11356,7 +11356,7 @@
         <v>10</v>
       </c>
       <c r="C839" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="840">
@@ -11369,7 +11369,7 @@
         <v>10</v>
       </c>
       <c r="C840" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="841">
@@ -11382,7 +11382,7 @@
         <v>30</v>
       </c>
       <c r="C841" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="842">
@@ -11395,7 +11395,7 @@
         <v>30</v>
       </c>
       <c r="C842" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="843">
@@ -11408,7 +11408,7 @@
         <v>10</v>
       </c>
       <c r="C843" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="844">
@@ -11421,7 +11421,7 @@
         <v>10</v>
       </c>
       <c r="C844" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="845">
@@ -11434,7 +11434,7 @@
         <v>10</v>
       </c>
       <c r="C845" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="846">
@@ -11447,7 +11447,7 @@
         <v>10</v>
       </c>
       <c r="C846" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="847">
@@ -11460,7 +11460,7 @@
         <v>30</v>
       </c>
       <c r="C847" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="848">
@@ -11473,7 +11473,7 @@
         <v>30</v>
       </c>
       <c r="C848" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="849">
@@ -11486,7 +11486,7 @@
         <v>10</v>
       </c>
       <c r="C849" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="850">
@@ -11499,7 +11499,7 @@
         <v>10</v>
       </c>
       <c r="C850" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="851">
@@ -11512,7 +11512,7 @@
         <v>10</v>
       </c>
       <c r="C851" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="852">
@@ -11525,7 +11525,7 @@
         <v>10</v>
       </c>
       <c r="C852" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="853">
@@ -11538,7 +11538,7 @@
         <v>10</v>
       </c>
       <c r="C853" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="854">
@@ -11551,7 +11551,7 @@
         <v>10</v>
       </c>
       <c r="C854" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="855">
@@ -11564,7 +11564,7 @@
         <v>10</v>
       </c>
       <c r="C855" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="856">
@@ -11577,7 +11577,7 @@
         <v>10</v>
       </c>
       <c r="C856" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="857">
@@ -11590,7 +11590,7 @@
         <v>10</v>
       </c>
       <c r="C857" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="858">
@@ -11603,7 +11603,7 @@
         <v>30</v>
       </c>
       <c r="C858" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="859">
@@ -11616,7 +11616,7 @@
         <v>10</v>
       </c>
       <c r="C859" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="860">
@@ -11629,7 +11629,7 @@
         <v>10</v>
       </c>
       <c r="C860" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="861">
@@ -11642,7 +11642,7 @@
         <v>10</v>
       </c>
       <c r="C861" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="862">
@@ -11655,7 +11655,7 @@
         <v>10</v>
       </c>
       <c r="C862" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="863">
@@ -11668,7 +11668,7 @@
         <v>10</v>
       </c>
       <c r="C863" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="864">
@@ -11681,7 +11681,7 @@
         <v>10</v>
       </c>
       <c r="C864" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="865">
@@ -11694,7 +11694,7 @@
         <v>10</v>
       </c>
       <c r="C865" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="866">
@@ -11707,7 +11707,7 @@
         <v>10</v>
       </c>
       <c r="C866" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="867">
@@ -11720,7 +11720,7 @@
         <v>10</v>
       </c>
       <c r="C867" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="868">
@@ -11733,7 +11733,7 @@
         <v>10</v>
       </c>
       <c r="C868" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="869">
@@ -11746,7 +11746,7 @@
         <v>10</v>
       </c>
       <c r="C869" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="870">
@@ -11759,7 +11759,7 @@
         <v>10</v>
       </c>
       <c r="C870" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="871">
@@ -11772,7 +11772,7 @@
         <v>10</v>
       </c>
       <c r="C871" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="872">
@@ -11785,7 +11785,7 @@
         <v>10</v>
       </c>
       <c r="C872" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="873">
@@ -11798,7 +11798,7 @@
         <v>12</v>
       </c>
       <c r="C873" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="874">
@@ -11811,7 +11811,7 @@
         <v>10</v>
       </c>
       <c r="C874" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="875">
@@ -11824,7 +11824,7 @@
         <v>10</v>
       </c>
       <c r="C875" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="876">
@@ -11837,7 +11837,7 @@
         <v>10</v>
       </c>
       <c r="C876" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="877">
@@ -11850,7 +11850,7 @@
         <v>10</v>
       </c>
       <c r="C877" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="878">
@@ -11863,7 +11863,7 @@
         <v>30</v>
       </c>
       <c r="C878" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="879">
@@ -11876,7 +11876,7 @@
         <v>10</v>
       </c>
       <c r="C879" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="880">
@@ -11889,7 +11889,7 @@
         <v>10</v>
       </c>
       <c r="C880" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="881">
@@ -11902,7 +11902,7 @@
         <v>10</v>
       </c>
       <c r="C881" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="882">
@@ -11915,7 +11915,7 @@
         <v>30</v>
       </c>
       <c r="C882" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="883">
@@ -11928,7 +11928,7 @@
         <v>10</v>
       </c>
       <c r="C883" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="884">
@@ -11941,7 +11941,7 @@
         <v>10</v>
       </c>
       <c r="C884" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="885">
@@ -11954,7 +11954,7 @@
         <v>10</v>
       </c>
       <c r="C885" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="886">
@@ -11967,7 +11967,7 @@
         <v>10</v>
       </c>
       <c r="C886" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="887">
@@ -11980,7 +11980,7 @@
         <v>10</v>
       </c>
       <c r="C887" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="888">
@@ -11993,7 +11993,7 @@
         <v>10</v>
       </c>
       <c r="C888" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="889">
@@ -12006,7 +12006,7 @@
         <v>10</v>
       </c>
       <c r="C889" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="890">
@@ -12019,7 +12019,7 @@
         <v>10</v>
       </c>
       <c r="C890" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="891">
@@ -12032,7 +12032,7 @@
         <v>10</v>
       </c>
       <c r="C891" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="892">
@@ -12045,7 +12045,7 @@
         <v>10</v>
       </c>
       <c r="C892" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="893">
@@ -12058,7 +12058,7 @@
         <v>16</v>
       </c>
       <c r="C893" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="894">
@@ -12071,7 +12071,7 @@
         <v>10</v>
       </c>
       <c r="C894" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="895">
@@ -12084,7 +12084,7 @@
         <v>10</v>
       </c>
       <c r="C895" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="896">
@@ -12097,7 +12097,7 @@
         <v>10</v>
       </c>
       <c r="C896" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="897">
@@ -12110,7 +12110,7 @@
         <v>30</v>
       </c>
       <c r="C897" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="898">
@@ -12123,7 +12123,7 @@
         <v>10</v>
       </c>
       <c r="C898" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="899">
@@ -12136,7 +12136,7 @@
         <v>10</v>
       </c>
       <c r="C899" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="900">
@@ -12149,7 +12149,7 @@
         <v>10</v>
       </c>
       <c r="C900" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="901">
@@ -12162,7 +12162,7 @@
         <v>10</v>
       </c>
       <c r="C901" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="902">
@@ -12175,7 +12175,7 @@
         <v>10</v>
       </c>
       <c r="C902" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="903">
@@ -12188,7 +12188,7 @@
         <v>30</v>
       </c>
       <c r="C903" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="904">
@@ -12201,7 +12201,7 @@
         <v>10</v>
       </c>
       <c r="C904" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="905">
@@ -12214,7 +12214,7 @@
         <v>30</v>
       </c>
       <c r="C905" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="906">
@@ -12227,7 +12227,7 @@
         <v>10</v>
       </c>
       <c r="C906" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="907">
@@ -12240,7 +12240,7 @@
         <v>10</v>
       </c>
       <c r="C907" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="908">
@@ -12253,7 +12253,7 @@
         <v>30</v>
       </c>
       <c r="C908" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="909">
@@ -12266,7 +12266,7 @@
         <v>10</v>
       </c>
       <c r="C909" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="910">
@@ -12279,7 +12279,7 @@
         <v>10</v>
       </c>
       <c r="C910" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="911">
@@ -12292,7 +12292,7 @@
         <v>10</v>
       </c>
       <c r="C911" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="912">
@@ -12305,7 +12305,7 @@
         <v>10</v>
       </c>
       <c r="C912" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="913">
@@ -12318,7 +12318,7 @@
         <v>10</v>
       </c>
       <c r="C913" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="914">
@@ -12331,7 +12331,7 @@
         <v>10</v>
       </c>
       <c r="C914" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="915">
@@ -12344,7 +12344,7 @@
         <v>10</v>
       </c>
       <c r="C915" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="916">
@@ -12357,7 +12357,7 @@
         <v>10</v>
       </c>
       <c r="C916" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="917">
@@ -12370,7 +12370,7 @@
         <v>10</v>
       </c>
       <c r="C917" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="918">
@@ -12383,7 +12383,7 @@
         <v>10</v>
       </c>
       <c r="C918" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="919">
@@ -12396,7 +12396,7 @@
         <v>10</v>
       </c>
       <c r="C919" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="920">
@@ -12409,7 +12409,7 @@
         <v>10</v>
       </c>
       <c r="C920" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="921">
@@ -12422,7 +12422,7 @@
         <v>10</v>
       </c>
       <c r="C921" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="922">
@@ -12435,7 +12435,7 @@
         <v>10</v>
       </c>
       <c r="C922" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="923">
@@ -12448,7 +12448,7 @@
         <v>10</v>
       </c>
       <c r="C923" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="924">
@@ -12461,7 +12461,7 @@
         <v>10</v>
       </c>
       <c r="C924" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="925">
@@ -12474,7 +12474,7 @@
         <v>10</v>
       </c>
       <c r="C925" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="926">
@@ -12487,7 +12487,7 @@
         <v>10</v>
       </c>
       <c r="C926" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="927">
@@ -12500,7 +12500,7 @@
         <v>10</v>
       </c>
       <c r="C927" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="928">
@@ -12513,7 +12513,7 @@
         <v>10</v>
       </c>
       <c r="C928" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="929">
@@ -12526,7 +12526,7 @@
         <v>10</v>
       </c>
       <c r="C929" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="930">
@@ -12539,7 +12539,7 @@
         <v>10</v>
       </c>
       <c r="C930" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="931">
@@ -12552,7 +12552,7 @@
         <v>10</v>
       </c>
       <c r="C931" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="932">
@@ -12565,7 +12565,7 @@
         <v>10</v>
       </c>
       <c r="C932" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="933">
@@ -12578,7 +12578,7 @@
         <v>10</v>
       </c>
       <c r="C933" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="934">
@@ -12591,7 +12591,7 @@
         <v>16</v>
       </c>
       <c r="C934" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="935">
@@ -12604,7 +12604,7 @@
         <v>10</v>
       </c>
       <c r="C935" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="936">
@@ -12617,7 +12617,7 @@
         <v>10</v>
       </c>
       <c r="C936" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="937">
@@ -12630,7 +12630,7 @@
         <v>10</v>
       </c>
       <c r="C937" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="938">
@@ -12643,7 +12643,7 @@
         <v>10</v>
       </c>
       <c r="C938" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="939">
@@ -12656,7 +12656,7 @@
         <v>12</v>
       </c>
       <c r="C939" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="940">
@@ -12669,7 +12669,7 @@
         <v>10</v>
       </c>
       <c r="C940" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="941">
@@ -12682,7 +12682,7 @@
         <v>10</v>
       </c>
       <c r="C941" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="942">
@@ -12695,7 +12695,7 @@
         <v>10</v>
       </c>
       <c r="C942" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="943">
@@ -12708,7 +12708,7 @@
         <v>10</v>
       </c>
       <c r="C943" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="944">
@@ -12721,7 +12721,7 @@
         <v>10</v>
       </c>
       <c r="C944" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="945">
@@ -12734,7 +12734,7 @@
         <v>10</v>
       </c>
       <c r="C945" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="946">
@@ -12747,7 +12747,7 @@
         <v>7</v>
       </c>
       <c r="C946" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="947">
@@ -12760,7 +12760,7 @@
         <v>7</v>
       </c>
       <c r="C947" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="948">
@@ -12773,7 +12773,7 @@
         <v>7</v>
       </c>
       <c r="C948" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="949">
@@ -12786,7 +12786,7 @@
         <v>7</v>
       </c>
       <c r="C949" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="950">
@@ -12799,7 +12799,7 @@
         <v>7</v>
       </c>
       <c r="C950" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="951">
@@ -12812,7 +12812,7 @@
         <v>7</v>
       </c>
       <c r="C951" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="952">
@@ -12825,7 +12825,7 @@
         <v>7</v>
       </c>
       <c r="C952" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="953">
@@ -12838,7 +12838,7 @@
         <v>7</v>
       </c>
       <c r="C953" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="954">
@@ -12851,7 +12851,7 @@
         <v>7</v>
       </c>
       <c r="C954" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="955">
@@ -12864,7 +12864,7 @@
         <v>7</v>
       </c>
       <c r="C955" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="956">
@@ -12877,7 +12877,7 @@
         <v>7</v>
       </c>
       <c r="C956" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="957">
@@ -12890,7 +12890,7 @@
         <v>7</v>
       </c>
       <c r="C957" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="958">
@@ -12903,7 +12903,7 @@
         <v>7</v>
       </c>
       <c r="C958" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="959">
@@ -12916,7 +12916,7 @@
         <v>7</v>
       </c>
       <c r="C959" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="960">
@@ -12929,7 +12929,7 @@
         <v>10</v>
       </c>
       <c r="C960" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="961">
@@ -12942,7 +12942,7 @@
         <v>2.5</v>
       </c>
       <c r="C961" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="962">
@@ -12955,7 +12955,7 @@
         <v>8</v>
       </c>
       <c r="C962" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="963">
@@ -12968,7 +12968,7 @@
         <v>8</v>
       </c>
       <c r="C963" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="964">
@@ -12981,7 +12981,7 @@
         <v>8</v>
       </c>
       <c r="C964" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="965">
@@ -12994,7 +12994,7 @@
         <v>8</v>
       </c>
       <c r="C965" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="966">
@@ -13007,7 +13007,7 @@
         <v>2.5</v>
       </c>
       <c r="C966" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="967">
@@ -13020,7 +13020,7 @@
         <v>3</v>
       </c>
       <c r="C967" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -13033,7 +13033,7 @@
         <v>10</v>
       </c>
       <c r="C968" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="969">
@@ -13046,7 +13046,7 @@
         <v>2.5</v>
       </c>
       <c r="C969" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="970">
@@ -13059,7 +13059,7 @@
         <v>2.5</v>
       </c>
       <c r="C970" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="971">
@@ -13111,7 +13111,7 @@
         <v>3.5</v>
       </c>
       <c r="C974" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="975">
@@ -13124,7 +13124,7 @@
         <v>8</v>
       </c>
       <c r="C975" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="976">
@@ -13137,7 +13137,7 @@
         <v>2.5</v>
       </c>
       <c r="C976" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="977">
@@ -13150,7 +13150,7 @@
         <v>10</v>
       </c>
       <c r="C977" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="978">
@@ -13163,7 +13163,7 @@
         <v>4.5</v>
       </c>
       <c r="C978" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="979">
@@ -13176,7 +13176,7 @@
         <v>4.5</v>
       </c>
       <c r="C979" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="980">
@@ -13189,7 +13189,7 @@
         <v>3</v>
       </c>
       <c r="C980" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="981">
@@ -13202,7 +13202,7 @@
         <v>5</v>
       </c>
       <c r="C981" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="982">
@@ -13215,7 +13215,7 @@
         <v>8</v>
       </c>
       <c r="C982" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="983">
@@ -13228,7 +13228,7 @@
         <v>8</v>
       </c>
       <c r="C983" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="984">
@@ -13241,7 +13241,7 @@
         <v>8</v>
       </c>
       <c r="C984" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="985">
@@ -13254,7 +13254,7 @@
         <v>8</v>
       </c>
       <c r="C985" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="986">
@@ -13267,7 +13267,7 @@
         <v>3</v>
       </c>
       <c r="C986" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -13280,7 +13280,7 @@
         <v>3</v>
       </c>
       <c r="C987" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -13293,7 +13293,7 @@
         <v>3</v>
       </c>
       <c r="C988" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -13306,7 +13306,7 @@
         <v>3</v>
       </c>
       <c r="C989" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -13319,7 +13319,7 @@
         <v>3</v>
       </c>
       <c r="C990" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -13332,7 +13332,7 @@
         <v>3</v>
       </c>
       <c r="C991" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -13345,7 +13345,7 @@
         <v>3</v>
       </c>
       <c r="C992" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="993">
@@ -13358,7 +13358,7 @@
         <v>25</v>
       </c>
       <c r="C993" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="994">
@@ -13371,7 +13371,7 @@
         <v>8</v>
       </c>
       <c r="C994" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="995">
@@ -13384,7 +13384,7 @@
         <v>16</v>
       </c>
       <c r="C995" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="996">
@@ -13397,7 +13397,7 @@
         <v>10</v>
       </c>
       <c r="C996" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="997">
@@ -13410,7 +13410,7 @@
         <v>2.5</v>
       </c>
       <c r="C997" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="998">
@@ -13423,7 +13423,7 @@
         <v>2.5</v>
       </c>
       <c r="C998" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="999">
@@ -13436,7 +13436,7 @@
         <v>10</v>
       </c>
       <c r="C999" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1000">
@@ -13449,7 +13449,7 @@
         <v>8</v>
       </c>
       <c r="C1000" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1001">
@@ -13462,7 +13462,7 @@
         <v>10</v>
       </c>
       <c r="C1001" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
